--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>18156.0528</v>
       </c>
       <c r="G2" t="n">
-        <v>-6843754.939799999</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,13 +489,13 @@
         <v>12297.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>-6856052.939699999</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>69152.83590000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-6856052.939699999</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>20000</v>
       </c>
       <c r="G5" t="n">
-        <v>-6836052.939699999</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>291682.1787</v>
       </c>
       <c r="G6" t="n">
-        <v>-7127735.118399999</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>194</v>
       </c>
       <c r="G7" t="n">
-        <v>-7127541.118399999</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -641,6 +651,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,15 +673,17 @@
         <v>36052.9982</v>
       </c>
       <c r="G8" t="n">
-        <v>-7163594.116599999</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.58</v>
+      </c>
       <c r="K8" t="n">
         <v>2.57</v>
       </c>
@@ -682,6 +695,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,15 +717,17 @@
         <v>193</v>
       </c>
       <c r="G9" t="n">
-        <v>-7163401.116599999</v>
+        <v>2.585000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K9" t="n">
         <v>2.57</v>
       </c>
@@ -723,6 +739,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,20 +761,25 @@
         <v>18646.3913</v>
       </c>
       <c r="G10" t="n">
-        <v>-7182047.5079</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.6</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -779,20 +801,29 @@
         <v>18640</v>
       </c>
       <c r="G11" t="n">
-        <v>-7163407.5079</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -814,20 +845,29 @@
         <v>36052.998</v>
       </c>
       <c r="G12" t="n">
-        <v>-7199460.505899999</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,7 +889,7 @@
         <v>26875.1579</v>
       </c>
       <c r="G13" t="n">
-        <v>-7172585.347999999</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -863,6 +903,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -884,7 +925,7 @@
         <v>226367.269</v>
       </c>
       <c r="G14" t="n">
-        <v>-7398952.617</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,6 +939,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -919,7 +961,7 @@
         <v>46140</v>
       </c>
       <c r="G15" t="n">
-        <v>-7352812.617</v>
+        <v>2.550000000000002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -933,6 +975,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -954,7 +997,7 @@
         <v>72269.7882</v>
       </c>
       <c r="G16" t="n">
-        <v>-7352812.617</v>
+        <v>2.560000000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -968,6 +1011,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -989,7 +1033,7 @@
         <v>279823.9369</v>
       </c>
       <c r="G17" t="n">
-        <v>-7072988.6801</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1003,6 +1047,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1024,13 +1069,13 @@
         <v>191160.187</v>
       </c>
       <c r="G18" t="n">
-        <v>-7072988.6801</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1038,6 +1083,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1059,7 +1105,7 @@
         <v>167485.482</v>
       </c>
       <c r="G19" t="n">
-        <v>-7072988.6801</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1073,6 +1119,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1094,7 +1141,7 @@
         <v>53940.1763</v>
       </c>
       <c r="G20" t="n">
-        <v>-7072988.6801</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1108,6 +1155,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1129,7 +1177,7 @@
         <v>160348.5079</v>
       </c>
       <c r="G21" t="n">
-        <v>-7072988.6801</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1143,6 +1191,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1164,13 +1213,13 @@
         <v>38910.5058</v>
       </c>
       <c r="G22" t="n">
-        <v>-7072988.6801</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1178,6 +1227,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1199,13 +1249,13 @@
         <v>246.7165</v>
       </c>
       <c r="G23" t="n">
-        <v>-7072741.963599999</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1213,6 +1263,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1234,13 +1285,13 @@
         <v>77380.7722007722</v>
       </c>
       <c r="G24" t="n">
-        <v>-6995361.191399227</v>
+        <v>2.585000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1248,6 +1299,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1269,13 +1321,13 @@
         <v>38810</v>
       </c>
       <c r="G25" t="n">
-        <v>-7034171.191399227</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1283,6 +1335,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1304,13 +1357,13 @@
         <v>19400</v>
       </c>
       <c r="G26" t="n">
-        <v>-7014771.191399227</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1318,6 +1371,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1339,13 +1393,13 @@
         <v>94624.0742</v>
       </c>
       <c r="G27" t="n">
-        <v>-7109395.265599227</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1353,6 +1407,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1374,7 +1429,7 @@
         <v>58863.302</v>
       </c>
       <c r="G28" t="n">
-        <v>-7168258.567599227</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1388,6 +1443,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1409,7 +1465,7 @@
         <v>396734.7194</v>
       </c>
       <c r="G29" t="n">
-        <v>-6771523.848199227</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1423,6 +1479,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1444,13 +1501,13 @@
         <v>77343.75</v>
       </c>
       <c r="G30" t="n">
-        <v>-6771523.848199227</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1458,6 +1515,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1479,13 +1537,13 @@
         <v>77343.75</v>
       </c>
       <c r="G31" t="n">
-        <v>-6848867.598199227</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1493,6 +1551,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1514,7 +1573,7 @@
         <v>96890.8465</v>
       </c>
       <c r="G32" t="n">
-        <v>-6751976.751699227</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1528,6 +1587,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1549,13 +1609,13 @@
         <v>61565.5155</v>
       </c>
       <c r="G33" t="n">
-        <v>-6813542.267199227</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1563,6 +1623,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1584,13 +1645,13 @@
         <v>50400</v>
       </c>
       <c r="G34" t="n">
-        <v>-6863942.267199227</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1598,6 +1659,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1619,7 +1681,7 @@
         <v>171223.923</v>
       </c>
       <c r="G35" t="n">
-        <v>-6692718.344199226</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1633,6 +1695,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1654,7 +1717,7 @@
         <v>71511.9855</v>
       </c>
       <c r="G36" t="n">
-        <v>-6692718.344199226</v>
+        <v>2.560000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1668,6 +1731,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1689,7 +1753,7 @@
         <v>76809.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>-6615908.344299226</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1703,6 +1767,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1724,13 +1789,13 @@
         <v>41712.0135</v>
       </c>
       <c r="G38" t="n">
-        <v>-6657620.357799226</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1738,6 +1803,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1759,13 +1825,13 @@
         <v>564504.7726</v>
       </c>
       <c r="G39" t="n">
-        <v>-6093115.585199227</v>
+        <v>2.585000000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1773,6 +1839,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1794,7 +1861,7 @@
         <v>62412.5189</v>
       </c>
       <c r="G40" t="n">
-        <v>-6093115.585199227</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1808,6 +1875,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1829,7 +1897,7 @@
         <v>96890.8465</v>
       </c>
       <c r="G41" t="n">
-        <v>-6190006.431699227</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,6 +1911,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1864,7 +1933,7 @@
         <v>24310</v>
       </c>
       <c r="G42" t="n">
-        <v>-6165696.431699227</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,6 +1947,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1899,7 +1969,7 @@
         <v>117714.0082</v>
       </c>
       <c r="G43" t="n">
-        <v>-6283410.439899227</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1913,6 +1983,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1934,7 +2005,7 @@
         <v>793787.6779</v>
       </c>
       <c r="G44" t="n">
-        <v>-6283410.439899227</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1948,6 +2019,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1969,7 +2041,7 @@
         <v>550558</v>
       </c>
       <c r="G45" t="n">
-        <v>-6283410.439899227</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,6 +2055,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2004,7 +2077,7 @@
         <v>26570.4366</v>
       </c>
       <c r="G46" t="n">
-        <v>-6256840.003299227</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2018,6 +2091,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2039,7 +2113,7 @@
         <v>973429</v>
       </c>
       <c r="G47" t="n">
-        <v>-7230269.003299227</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,6 +2127,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2074,7 +2149,7 @@
         <v>331713</v>
       </c>
       <c r="G48" t="n">
-        <v>-7230269.003299227</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2088,6 +2163,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2109,7 +2185,7 @@
         <v>559469.3184</v>
       </c>
       <c r="G49" t="n">
-        <v>-7230269.003299227</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,6 +2199,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2144,7 +2221,7 @@
         <v>52136.1764</v>
       </c>
       <c r="G50" t="n">
-        <v>-7230269.003299227</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,6 +2235,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2179,7 +2257,7 @@
         <v>3861.003861003861</v>
       </c>
       <c r="G51" t="n">
-        <v>-7226407.999438223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2193,6 +2271,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2214,13 +2293,13 @@
         <v>1100</v>
       </c>
       <c r="G52" t="n">
-        <v>-7227507.999438223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2228,6 +2307,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2249,13 +2329,13 @@
         <v>110318.7553</v>
       </c>
       <c r="G53" t="n">
-        <v>-7117189.244138223</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2263,6 +2343,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2284,13 +2365,13 @@
         <v>20000</v>
       </c>
       <c r="G54" t="n">
-        <v>-7117189.244138223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2298,6 +2379,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2319,13 +2401,13 @@
         <v>30000</v>
       </c>
       <c r="G55" t="n">
-        <v>-7087189.244138223</v>
+        <v>2.585000000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2333,6 +2415,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2354,13 +2437,13 @@
         <v>1510982.4813</v>
       </c>
       <c r="G56" t="n">
-        <v>-7087189.244138223</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2368,6 +2451,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2389,13 +2473,13 @@
         <v>67494.2565</v>
       </c>
       <c r="G57" t="n">
-        <v>-7019694.987638223</v>
+        <v>2.595000000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2403,6 +2487,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2424,13 +2509,13 @@
         <v>105925.634</v>
       </c>
       <c r="G58" t="n">
-        <v>-7125620.621638223</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2438,6 +2523,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2459,13 +2545,13 @@
         <v>19048.0823</v>
       </c>
       <c r="G59" t="n">
-        <v>-7125620.621638223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2473,6 +2559,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2494,13 +2581,13 @@
         <v>43050.1581</v>
       </c>
       <c r="G60" t="n">
-        <v>-7082570.463538223</v>
+        <v>2.585000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2508,6 +2595,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2529,13 +2617,13 @@
         <v>19623.0283</v>
       </c>
       <c r="G61" t="n">
-        <v>-7082570.463538223</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2543,6 +2631,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2564,13 +2653,13 @@
         <v>88666.8135</v>
       </c>
       <c r="G62" t="n">
-        <v>-7082570.463538223</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2578,6 +2667,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2599,7 +2689,7 @@
         <v>255714.0733</v>
       </c>
       <c r="G63" t="n">
-        <v>-7338284.536838223</v>
+        <v>2.585000000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,6 +2703,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2634,7 +2725,7 @@
         <v>195</v>
       </c>
       <c r="G64" t="n">
-        <v>-7338284.536838223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,6 +2739,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2669,7 +2761,7 @@
         <v>19323.3954</v>
       </c>
       <c r="G65" t="n">
-        <v>-7338284.536838223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,6 +2775,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2704,7 +2797,7 @@
         <v>15314.829</v>
       </c>
       <c r="G66" t="n">
-        <v>-7338284.536838223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,6 +2811,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2739,13 +2833,13 @@
         <v>19130.3954</v>
       </c>
       <c r="G67" t="n">
-        <v>-7357414.932238223</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2753,6 +2847,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2774,7 +2869,7 @@
         <v>195</v>
       </c>
       <c r="G68" t="n">
-        <v>-7357219.932238223</v>
+        <v>2.585000000000002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,6 +2883,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2809,13 +2905,13 @@
         <v>430</v>
       </c>
       <c r="G69" t="n">
-        <v>-7357649.932238223</v>
+        <v>2.585000000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2823,6 +2919,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2844,13 +2941,13 @@
         <v>12630.6489</v>
       </c>
       <c r="G70" t="n">
-        <v>-7357649.932238223</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2858,6 +2955,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2879,13 +2977,13 @@
         <v>84687.5221</v>
       </c>
       <c r="G71" t="n">
-        <v>-7272962.410138223</v>
+        <v>2.580000000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2893,6 +2991,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2914,13 +3013,13 @@
         <v>14689.4779</v>
       </c>
       <c r="G72" t="n">
-        <v>-7272962.410138223</v>
+        <v>2.590000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2928,6 +3027,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2949,13 +3049,13 @@
         <v>59522.1151</v>
       </c>
       <c r="G73" t="n">
-        <v>-7332484.525238223</v>
+        <v>2.565000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2963,6 +3063,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2984,13 +3085,13 @@
         <v>236220</v>
       </c>
       <c r="G74" t="n">
-        <v>-7096264.525238223</v>
+        <v>2.560000000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2998,6 +3099,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3019,13 +3121,13 @@
         <v>213.4197</v>
       </c>
       <c r="G75" t="n">
-        <v>-7096477.944938224</v>
+        <v>2.575000000000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3033,6 +3135,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3054,13 +3157,13 @@
         <v>20000</v>
       </c>
       <c r="G76" t="n">
-        <v>-7096477.944938224</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3068,6 +3171,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3089,7 +3193,7 @@
         <v>850.5211</v>
       </c>
       <c r="G77" t="n">
-        <v>-7096477.944938224</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,6 +3207,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3124,7 +3229,7 @@
         <v>61014.4242</v>
       </c>
       <c r="G78" t="n">
-        <v>-7096477.944938224</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,6 +3243,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3159,7 +3265,7 @@
         <v>797184.3219</v>
       </c>
       <c r="G79" t="n">
-        <v>-7893662.266838224</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,6 +3279,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3194,7 +3301,7 @@
         <v>57636.6673</v>
       </c>
       <c r="G80" t="n">
-        <v>-7836025.599538224</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,6 +3315,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3229,7 +3337,7 @@
         <v>888.452</v>
       </c>
       <c r="G81" t="n">
-        <v>-7836025.599538224</v>
+        <v>2.570000000000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,6 +3351,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3264,7 +3373,7 @@
         <v>20000</v>
       </c>
       <c r="G82" t="n">
-        <v>-7836025.599538224</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,6 +3387,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3299,7 +3409,7 @@
         <v>18855.1664</v>
       </c>
       <c r="G83" t="n">
-        <v>-7854880.765938224</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,6 +3423,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3334,7 +3445,7 @@
         <v>18855.166</v>
       </c>
       <c r="G84" t="n">
-        <v>-7854880.765938224</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,6 +3459,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3369,7 +3481,7 @@
         <v>73435.166</v>
       </c>
       <c r="G85" t="n">
-        <v>-7781445.599938224</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,6 +3495,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3404,7 +3517,7 @@
         <v>11910</v>
       </c>
       <c r="G86" t="n">
-        <v>-7781445.599938224</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,6 +3531,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3439,24 +3553,21 @@
         <v>217302.8473</v>
       </c>
       <c r="G87" t="n">
-        <v>-7564142.752638225</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.57</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3478,28 +3589,21 @@
         <v>77357.8824</v>
       </c>
       <c r="G88" t="n">
-        <v>-7564142.752638225</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3521,28 +3625,21 @@
         <v>77358.2709</v>
       </c>
       <c r="G89" t="n">
-        <v>-7564142.752638225</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3564,13 +3661,13 @@
         <v>99412</v>
       </c>
       <c r="G90" t="n">
-        <v>-7663554.752638225</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3578,6 +3675,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3599,13 +3697,13 @@
         <v>96511.62790000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-7567043.124738225</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3613,6 +3711,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3634,13 +3733,13 @@
         <v>49878.4317</v>
       </c>
       <c r="G92" t="n">
-        <v>-7616921.556438224</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3648,6 +3747,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3669,7 +3769,7 @@
         <v>211698.8829</v>
       </c>
       <c r="G93" t="n">
-        <v>-7828620.439338224</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3683,6 +3783,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3704,24 +3805,21 @@
         <v>20000</v>
       </c>
       <c r="G94" t="n">
-        <v>-7808620.439338224</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3743,28 +3841,21 @@
         <v>1353.875968992248</v>
       </c>
       <c r="G95" t="n">
-        <v>-7807266.563369231</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3786,28 +3877,21 @@
         <v>27597.3449</v>
       </c>
       <c r="G96" t="n">
-        <v>-7807266.563369231</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3829,13 +3913,13 @@
         <v>141208.6091</v>
       </c>
       <c r="G97" t="n">
-        <v>-7948475.172469231</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3843,6 +3927,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3864,13 +3949,13 @@
         <v>20128.7621</v>
       </c>
       <c r="G98" t="n">
-        <v>-7928346.410369231</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3878,6 +3963,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3899,24 +3985,21 @@
         <v>22185</v>
       </c>
       <c r="G99" t="n">
-        <v>-7950531.410369231</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3938,26 +4021,21 @@
         <v>571.3966</v>
       </c>
       <c r="G100" t="n">
-        <v>-7950531.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3979,26 +4057,21 @@
         <v>77377.5227</v>
       </c>
       <c r="G101" t="n">
-        <v>-7950531.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4020,7 +4093,7 @@
         <v>199.8714</v>
       </c>
       <c r="G102" t="n">
-        <v>-7950531.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4034,6 +4107,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4055,13 +4129,13 @@
         <v>145.4326</v>
       </c>
       <c r="G103" t="n">
-        <v>-7950531.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4069,6 +4143,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4090,24 +4165,21 @@
         <v>948.7</v>
       </c>
       <c r="G104" t="n">
-        <v>-7950531.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.57</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4129,28 +4201,21 @@
         <v>77533</v>
       </c>
       <c r="G105" t="n">
-        <v>-8028064.410369231</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4172,28 +4237,21 @@
         <v>1000</v>
       </c>
       <c r="G106" t="n">
-        <v>-8027064.410369231</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K106" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4215,13 +4273,13 @@
         <v>47817.8024</v>
       </c>
       <c r="G107" t="n">
-        <v>-8027064.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4229,6 +4287,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4250,24 +4309,21 @@
         <v>14219</v>
       </c>
       <c r="G108" t="n">
-        <v>-8027064.410369231</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K108" t="n">
-        <v>2.57</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4289,26 +4345,21 @@
         <v>194</v>
       </c>
       <c r="G109" t="n">
-        <v>-8026870.410369231</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4330,26 +4381,21 @@
         <v>1030.5481</v>
       </c>
       <c r="G110" t="n">
-        <v>-8027900.958469232</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4371,13 +4417,13 @@
         <v>345.304</v>
       </c>
       <c r="G111" t="n">
-        <v>-8028246.262469231</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4385,6 +4431,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4406,24 +4453,21 @@
         <v>527489.8861</v>
       </c>
       <c r="G112" t="n">
-        <v>-7500756.376369231</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4445,26 +4489,21 @@
         <v>326201.9998</v>
       </c>
       <c r="G113" t="n">
-        <v>-7826958.376169232</v>
+        <v>2.565000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4486,26 +4525,21 @@
         <v>20833</v>
       </c>
       <c r="G114" t="n">
-        <v>-7826958.376169232</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4527,24 +4561,21 @@
         <v>21830</v>
       </c>
       <c r="G115" t="n">
-        <v>-7826958.376169232</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K115" t="n">
-        <v>2.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4566,28 +4597,21 @@
         <v>153337.2178</v>
       </c>
       <c r="G116" t="n">
-        <v>-7826958.376169232</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4609,28 +4633,21 @@
         <v>74285.58500000001</v>
       </c>
       <c r="G117" t="n">
-        <v>-7826958.376169232</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K117" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4652,24 +4669,21 @@
         <v>487613.3158</v>
       </c>
       <c r="G118" t="n">
-        <v>-7826958.376169232</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K118" t="n">
-        <v>2.56</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4691,26 +4705,21 @@
         <v>74800.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>-7901758.376269232</v>
+        <v>2.550000000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4732,7 +4741,7 @@
         <v>75259.88989999999</v>
       </c>
       <c r="G120" t="n">
-        <v>-7826498.486369232</v>
+        <v>2.550000000000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4741,17 +4750,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4773,28 +4777,21 @@
         <v>108530</v>
       </c>
       <c r="G121" t="n">
-        <v>-7717968.486369232</v>
+        <v>2.565000000000002</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4816,26 +4813,21 @@
         <v>13380</v>
       </c>
       <c r="G122" t="n">
-        <v>-7717968.486369232</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4857,26 +4849,21 @@
         <v>2867.7001</v>
       </c>
       <c r="G123" t="n">
-        <v>-7715100.786269232</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4898,26 +4885,21 @@
         <v>164244.102</v>
       </c>
       <c r="G124" t="n">
-        <v>-7879344.888269232</v>
+        <v>2.575000000000001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4939,26 +4921,21 @@
         <v>33077</v>
       </c>
       <c r="G125" t="n">
-        <v>-7912421.888269232</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4980,26 +4957,21 @@
         <v>24594</v>
       </c>
       <c r="G126" t="n">
-        <v>-7887827.888269232</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5021,28 +4993,21 @@
         <v>46390</v>
       </c>
       <c r="G127" t="n">
-        <v>-7934217.888269232</v>
+        <v>2.555000000000001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K127" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5064,28 +5029,21 @@
         <v>76126.02280000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-7934217.888269232</v>
+        <v>2.550000000000001</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K128" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5107,28 +5065,21 @@
         <v>20000</v>
       </c>
       <c r="G129" t="n">
-        <v>-7914217.888269232</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K129" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5150,28 +5101,21 @@
         <v>470357.3383</v>
       </c>
       <c r="G130" t="n">
-        <v>-7914217.888269232</v>
+        <v>2.590000000000001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K130" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5193,26 +5137,21 @@
         <v>92943.84645384616</v>
       </c>
       <c r="G131" t="n">
-        <v>-8007161.734723078</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5234,26 +5173,21 @@
         <v>20620</v>
       </c>
       <c r="G132" t="n">
-        <v>-8007161.734723078</v>
+        <v>2.570000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5275,7 +5209,7 @@
         <v>821733.7579</v>
       </c>
       <c r="G133" t="n">
-        <v>-7185427.976823078</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5284,17 +5218,12 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5316,7 +5245,7 @@
         <v>263636.7024</v>
       </c>
       <c r="G134" t="n">
-        <v>-7185427.976823078</v>
+        <v>2.590000000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5325,17 +5254,12 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5357,7 +5281,7 @@
         <v>96406.249</v>
       </c>
       <c r="G135" t="n">
-        <v>-7185427.976823078</v>
+        <v>2.590000000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5366,17 +5290,12 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5398,7 +5317,7 @@
         <v>38276.3839</v>
       </c>
       <c r="G136" t="n">
-        <v>-7185427.976823078</v>
+        <v>2.590000000000001</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5407,17 +5326,12 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="C2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="D2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="E2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="F2" t="n">
-        <v>18156.0528</v>
+        <v>19072.5758</v>
       </c>
       <c r="G2" t="n">
-        <v>2.555000000000001</v>
+        <v>-2126823.3371</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="C3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="E3" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F3" t="n">
-        <v>12297.9999</v>
+        <v>209123.5863</v>
       </c>
       <c r="G3" t="n">
-        <v>2.575000000000001</v>
+        <v>-2335946.9234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="D4" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E4" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="F4" t="n">
-        <v>69152.83590000001</v>
+        <v>2160.3872</v>
       </c>
       <c r="G4" t="n">
-        <v>2.570000000000001</v>
+        <v>-2333786.5362</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="C5" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="E5" t="n">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="F5" t="n">
-        <v>20000</v>
+        <v>74903.50900000001</v>
       </c>
       <c r="G5" t="n">
-        <v>2.580000000000001</v>
+        <v>-2258883.027199999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C6" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="D6" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E6" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="F6" t="n">
-        <v>291682.1787</v>
+        <v>84032.57030000001</v>
       </c>
       <c r="G6" t="n">
-        <v>2.580000000000001</v>
+        <v>-2342915.597499999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,35 +618,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="C7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="D7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="E7" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="F7" t="n">
-        <v>194</v>
+        <v>10586.7021</v>
       </c>
       <c r="G7" t="n">
-        <v>2.575000000000001</v>
+        <v>-2342915.597499999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.57</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -658,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="C8" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D8" t="n">
-        <v>2.57</v>
+        <v>2.64</v>
       </c>
       <c r="E8" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F8" t="n">
-        <v>36052.9982</v>
+        <v>2777767.8589</v>
       </c>
       <c r="G8" t="n">
-        <v>2.575000000000001</v>
+        <v>-5120683.4564</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -702,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="D9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="E9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="F9" t="n">
-        <v>193</v>
+        <v>2459.1831</v>
       </c>
       <c r="G9" t="n">
-        <v>2.585000000000001</v>
+        <v>-5118224.2733</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -746,35 +726,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="C10" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="D10" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="E10" t="n">
-        <v>2.56</v>
+        <v>2.63</v>
       </c>
       <c r="F10" t="n">
-        <v>18646.3913</v>
+        <v>143517</v>
       </c>
       <c r="G10" t="n">
-        <v>2.580000000000001</v>
+        <v>-5261741.2733</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -786,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="C11" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="D11" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E11" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="F11" t="n">
-        <v>18640</v>
+        <v>150000</v>
       </c>
       <c r="G11" t="n">
-        <v>2.570000000000001</v>
+        <v>-5261741.2733</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -830,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="C12" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="D12" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="E12" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="F12" t="n">
-        <v>36052.998</v>
+        <v>126956.8917</v>
       </c>
       <c r="G12" t="n">
-        <v>2.575000000000001</v>
+        <v>-5261741.2733</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -874,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="C13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="D13" t="n">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="E13" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F13" t="n">
-        <v>26875.1579</v>
+        <v>113893</v>
       </c>
       <c r="G13" t="n">
-        <v>2.575000000000001</v>
+        <v>-5375634.2733</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -910,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="C14" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="D14" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="E14" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="F14" t="n">
-        <v>226367.269</v>
+        <v>587032.153</v>
       </c>
       <c r="G14" t="n">
-        <v>2.560000000000001</v>
+        <v>-5375634.2733</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -946,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="C15" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="D15" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="E15" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F15" t="n">
-        <v>46140</v>
+        <v>384.6154</v>
       </c>
       <c r="G15" t="n">
-        <v>2.550000000000002</v>
+        <v>-5376018.888699999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -982,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="C16" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="D16" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="E16" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="F16" t="n">
-        <v>72269.7882</v>
+        <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>2.560000000000002</v>
+        <v>-5375818.888699999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1018,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="C17" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D17" t="n">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="E17" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="F17" t="n">
-        <v>279823.9369</v>
+        <v>716</v>
       </c>
       <c r="G17" t="n">
-        <v>2.565000000000001</v>
+        <v>-5376534.888699999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1054,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="C18" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D18" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="E18" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="F18" t="n">
-        <v>191160.187</v>
+        <v>5169.7676</v>
       </c>
       <c r="G18" t="n">
-        <v>2.570000000000001</v>
+        <v>-5376534.888699999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1090,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C19" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D19" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E19" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F19" t="n">
-        <v>167485.482</v>
+        <v>650442.2793000001</v>
       </c>
       <c r="G19" t="n">
-        <v>2.570000000000001</v>
+        <v>-6026977.168</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1126,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C20" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D20" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E20" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F20" t="n">
-        <v>53940.1763</v>
+        <v>204.3829</v>
       </c>
       <c r="G20" t="n">
-        <v>2.570000000000001</v>
+        <v>-6027181.550899999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1162,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C21" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D21" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E21" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F21" t="n">
-        <v>160348.5079</v>
+        <v>179403.8406</v>
       </c>
       <c r="G21" t="n">
-        <v>2.570000000000001</v>
+        <v>-6206585.391499999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1198,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C22" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D22" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E22" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F22" t="n">
-        <v>38910.5058</v>
+        <v>333</v>
       </c>
       <c r="G22" t="n">
-        <v>2.570000000000001</v>
+        <v>-6206252.391499999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1234,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="C23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="E23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F23" t="n">
-        <v>246.7165</v>
+        <v>51800.2019</v>
       </c>
       <c r="G23" t="n">
-        <v>2.575000000000001</v>
+        <v>-6258052.593399999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1270,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="C24" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="D24" t="n">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="E24" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F24" t="n">
-        <v>77380.7722007722</v>
+        <v>20000</v>
       </c>
       <c r="G24" t="n">
-        <v>2.585000000000001</v>
+        <v>-6238052.593399999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1306,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C25" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D25" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E25" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="F25" t="n">
-        <v>38810</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>2.580000000000001</v>
+        <v>-6239052.593399999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1345,25 +1305,25 @@
         <v>2.58</v>
       </c>
       <c r="C26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D26" t="n">
         <v>2.58</v>
       </c>
       <c r="E26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F26" t="n">
-        <v>19400</v>
+        <v>79338.3214</v>
       </c>
       <c r="G26" t="n">
-        <v>2.575000000000001</v>
+        <v>-6318390.914799999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1381,25 +1341,25 @@
         <v>2.56</v>
       </c>
       <c r="C27" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D27" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E27" t="n">
         <v>2.56</v>
       </c>
       <c r="F27" t="n">
-        <v>94624.0742</v>
+        <v>13370</v>
       </c>
       <c r="G27" t="n">
-        <v>2.575000000000001</v>
+        <v>-6318390.914799999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1414,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F28" t="n">
-        <v>58863.302</v>
+        <v>18759.6901</v>
       </c>
       <c r="G28" t="n">
-        <v>2.565000000000001</v>
+        <v>-6299631.224699998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1450,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C29" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D29" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E29" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F29" t="n">
-        <v>396734.7194</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>2.565000000000001</v>
+        <v>-6299631.224699998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1486,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="C30" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="D30" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="E30" t="n">
-        <v>2.57</v>
+        <v>2.53</v>
       </c>
       <c r="F30" t="n">
-        <v>77343.75</v>
+        <v>562279.7679</v>
       </c>
       <c r="G30" t="n">
-        <v>2.570000000000001</v>
+        <v>-6861910.992599999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1522,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C31" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D31" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E31" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F31" t="n">
-        <v>77343.75</v>
+        <v>18156.0528</v>
       </c>
       <c r="G31" t="n">
-        <v>2.560000000000001</v>
+        <v>-6843754.939799999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1558,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C32" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D32" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E32" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F32" t="n">
-        <v>96890.8465</v>
+        <v>12297.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>2.565000000000001</v>
+        <v>-6856052.939699999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1594,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C33" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D33" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E33" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F33" t="n">
-        <v>61565.5155</v>
+        <v>69152.83590000001</v>
       </c>
       <c r="G33" t="n">
-        <v>2.570000000000002</v>
+        <v>-6856052.939699999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1630,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="C34" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="D34" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="E34" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="F34" t="n">
-        <v>50400</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="n">
-        <v>2.555000000000001</v>
+        <v>-6836052.939699999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1666,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="C35" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D35" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E35" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="F35" t="n">
-        <v>171223.923</v>
+        <v>291682.1787</v>
       </c>
       <c r="G35" t="n">
-        <v>2.555000000000001</v>
+        <v>-7127735.118399999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1705,19 +1665,19 @@
         <v>2.58</v>
       </c>
       <c r="C36" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D36" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="E36" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F36" t="n">
-        <v>71511.9855</v>
+        <v>194</v>
       </c>
       <c r="G36" t="n">
-        <v>2.560000000000002</v>
+        <v>-7127541.118399999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1738,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C37" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="D37" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="E37" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F37" t="n">
-        <v>76809.9999</v>
+        <v>36052.9982</v>
       </c>
       <c r="G37" t="n">
-        <v>2.580000000000002</v>
+        <v>-7163594.116599999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1777,25 +1737,25 @@
         <v>2.6</v>
       </c>
       <c r="C38" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="n">
         <v>2.6</v>
       </c>
       <c r="E38" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="F38" t="n">
-        <v>41712.0135</v>
+        <v>193</v>
       </c>
       <c r="G38" t="n">
-        <v>2.590000000000002</v>
+        <v>-7163401.116599999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1810,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C39" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="D39" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="E39" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="F39" t="n">
-        <v>564504.7726</v>
+        <v>18646.3913</v>
       </c>
       <c r="G39" t="n">
-        <v>2.585000000000002</v>
+        <v>-7182047.5079</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1846,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C40" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D40" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E40" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="F40" t="n">
-        <v>62412.5189</v>
+        <v>18640</v>
       </c>
       <c r="G40" t="n">
-        <v>2.590000000000002</v>
+        <v>-7163407.5079</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1894,10 +1854,10 @@
         <v>2.57</v>
       </c>
       <c r="F41" t="n">
-        <v>96890.8465</v>
+        <v>36052.998</v>
       </c>
       <c r="G41" t="n">
-        <v>2.580000000000002</v>
+        <v>-7199460.505899999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1930,10 +1890,10 @@
         <v>2.58</v>
       </c>
       <c r="F42" t="n">
-        <v>24310</v>
+        <v>26875.1579</v>
       </c>
       <c r="G42" t="n">
-        <v>2.575000000000002</v>
+        <v>-7172585.347999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1954,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C43" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="D43" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E43" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="F43" t="n">
-        <v>117714.0082</v>
+        <v>226367.269</v>
       </c>
       <c r="G43" t="n">
-        <v>2.575000000000002</v>
+        <v>-7398952.617</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1990,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C44" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D44" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E44" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F44" t="n">
-        <v>793787.6779</v>
+        <v>46140</v>
       </c>
       <c r="G44" t="n">
-        <v>2.570000000000002</v>
+        <v>-7352812.617</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2029,19 +1989,19 @@
         <v>2.57</v>
       </c>
       <c r="C45" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D45" t="n">
         <v>2.57</v>
       </c>
       <c r="E45" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F45" t="n">
-        <v>550558</v>
+        <v>72269.7882</v>
       </c>
       <c r="G45" t="n">
-        <v>2.570000000000002</v>
+        <v>-7352812.617</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2062,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C46" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D46" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E46" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F46" t="n">
-        <v>26570.4366</v>
+        <v>279823.9369</v>
       </c>
       <c r="G46" t="n">
-        <v>2.575000000000002</v>
+        <v>-7072988.6801</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2098,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C47" t="n">
         <v>2.57</v>
       </c>
       <c r="D47" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E47" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F47" t="n">
-        <v>973429</v>
+        <v>191160.187</v>
       </c>
       <c r="G47" t="n">
-        <v>2.575000000000002</v>
+        <v>-7072988.6801</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2143,13 +2103,13 @@
         <v>2.57</v>
       </c>
       <c r="E48" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F48" t="n">
-        <v>331713</v>
+        <v>167485.482</v>
       </c>
       <c r="G48" t="n">
-        <v>2.570000000000002</v>
+        <v>-7072988.6801</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2182,10 +2142,10 @@
         <v>2.57</v>
       </c>
       <c r="F49" t="n">
-        <v>559469.3184</v>
+        <v>53940.1763</v>
       </c>
       <c r="G49" t="n">
-        <v>2.570000000000002</v>
+        <v>-7072988.6801</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2218,10 +2178,10 @@
         <v>2.57</v>
       </c>
       <c r="F50" t="n">
-        <v>52136.1764</v>
+        <v>160348.5079</v>
       </c>
       <c r="G50" t="n">
-        <v>2.570000000000002</v>
+        <v>-7072988.6801</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2242,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C51" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D51" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E51" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F51" t="n">
-        <v>3861.003861003861</v>
+        <v>38910.5058</v>
       </c>
       <c r="G51" t="n">
-        <v>2.580000000000002</v>
+        <v>-7072988.6801</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2278,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C52" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D52" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E52" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F52" t="n">
-        <v>1100</v>
+        <v>246.7165</v>
       </c>
       <c r="G52" t="n">
-        <v>2.580000000000002</v>
+        <v>-7072741.963599999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2314,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="C53" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="D53" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E53" t="n">
         <v>2.58</v>
       </c>
       <c r="F53" t="n">
-        <v>110318.7553</v>
+        <v>77380.7722007722</v>
       </c>
       <c r="G53" t="n">
-        <v>2.575000000000002</v>
+        <v>-6995361.191399227</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2350,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C54" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D54" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E54" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F54" t="n">
-        <v>20000</v>
+        <v>38810</v>
       </c>
       <c r="G54" t="n">
-        <v>2.580000000000002</v>
+        <v>-7034171.191399227</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2386,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C55" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D55" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E55" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="F55" t="n">
-        <v>30000</v>
+        <v>19400</v>
       </c>
       <c r="G55" t="n">
-        <v>2.585000000000002</v>
+        <v>-7014771.191399227</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2422,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C56" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D56" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E56" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="F56" t="n">
-        <v>1510982.4813</v>
+        <v>94624.0742</v>
       </c>
       <c r="G56" t="n">
-        <v>2.590000000000002</v>
+        <v>-7109395.265599227</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2458,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="C57" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="D57" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="E57" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="F57" t="n">
-        <v>67494.2565</v>
+        <v>58863.302</v>
       </c>
       <c r="G57" t="n">
-        <v>2.595000000000002</v>
+        <v>-7168258.567599227</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2494,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C58" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D58" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E58" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F58" t="n">
-        <v>105925.634</v>
+        <v>396734.7194</v>
       </c>
       <c r="G58" t="n">
-        <v>2.590000000000002</v>
+        <v>-6771523.848199227</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2530,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C59" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D59" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E59" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F59" t="n">
-        <v>19048.0823</v>
+        <v>77343.75</v>
       </c>
       <c r="G59" t="n">
-        <v>2.580000000000002</v>
+        <v>-6771523.848199227</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2566,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C60" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="D60" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E60" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="F60" t="n">
-        <v>43050.1581</v>
+        <v>77343.75</v>
       </c>
       <c r="G60" t="n">
-        <v>2.585000000000002</v>
+        <v>-6848867.598199227</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2602,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C61" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D61" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E61" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="F61" t="n">
-        <v>19623.0283</v>
+        <v>96890.8465</v>
       </c>
       <c r="G61" t="n">
-        <v>2.590000000000002</v>
+        <v>-6751976.751699227</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2638,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C62" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="D62" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="E62" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="F62" t="n">
-        <v>88666.8135</v>
+        <v>61565.5155</v>
       </c>
       <c r="G62" t="n">
-        <v>2.590000000000002</v>
+        <v>-6813542.267199227</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2674,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="C63" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="D63" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="E63" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="F63" t="n">
-        <v>255714.0733</v>
+        <v>50400</v>
       </c>
       <c r="G63" t="n">
-        <v>2.585000000000002</v>
+        <v>-6863942.267199227</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2710,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="C64" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D64" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="E64" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="F64" t="n">
-        <v>195</v>
+        <v>171223.923</v>
       </c>
       <c r="G64" t="n">
-        <v>2.580000000000002</v>
+        <v>-6692718.344199226</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2746,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="C65" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="D65" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="E65" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F65" t="n">
-        <v>19323.3954</v>
+        <v>71511.9855</v>
       </c>
       <c r="G65" t="n">
-        <v>2.580000000000002</v>
+        <v>-6692718.344199226</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2782,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="C66" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="D66" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="E66" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="F66" t="n">
-        <v>15314.829</v>
+        <v>76809.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>2.580000000000002</v>
+        <v>-6615908.344299226</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2818,28 +2778,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C67" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D67" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E67" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F67" t="n">
-        <v>19130.3954</v>
+        <v>41712.0135</v>
       </c>
       <c r="G67" t="n">
-        <v>2.575000000000002</v>
+        <v>-6657620.357799226</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2854,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="C68" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D68" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E68" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F68" t="n">
-        <v>195</v>
+        <v>564504.7726</v>
       </c>
       <c r="G68" t="n">
-        <v>2.585000000000002</v>
+        <v>-6093115.585199227</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2890,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C69" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D69" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E69" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F69" t="n">
-        <v>430</v>
+        <v>62412.5189</v>
       </c>
       <c r="G69" t="n">
-        <v>2.585000000000002</v>
+        <v>-6093115.585199227</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2926,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C70" t="n">
         <v>2.57</v>
       </c>
       <c r="D70" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E70" t="n">
         <v>2.57</v>
       </c>
       <c r="F70" t="n">
-        <v>12630.6489</v>
+        <v>96890.8465</v>
       </c>
       <c r="G70" t="n">
-        <v>2.570000000000002</v>
+        <v>-6190006.431699227</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2962,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="C71" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="D71" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E71" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="F71" t="n">
-        <v>84687.5221</v>
+        <v>24310</v>
       </c>
       <c r="G71" t="n">
-        <v>2.580000000000002</v>
+        <v>-6165696.431699227</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2998,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C72" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D72" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="E72" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F72" t="n">
-        <v>14689.4779</v>
+        <v>117714.0082</v>
       </c>
       <c r="G72" t="n">
-        <v>2.590000000000002</v>
+        <v>-6283410.439899227</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3034,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C73" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="D73" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E73" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="F73" t="n">
-        <v>59522.1151</v>
+        <v>793787.6779</v>
       </c>
       <c r="G73" t="n">
-        <v>2.565000000000002</v>
+        <v>-6283410.439899227</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3070,28 +3030,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C74" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D74" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E74" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F74" t="n">
-        <v>236220</v>
+        <v>550558</v>
       </c>
       <c r="G74" t="n">
-        <v>2.560000000000002</v>
+        <v>-6283410.439899227</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3106,28 +3066,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C75" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D75" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E75" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F75" t="n">
-        <v>213.4197</v>
+        <v>26570.4366</v>
       </c>
       <c r="G75" t="n">
-        <v>2.575000000000002</v>
+        <v>-6256840.003299227</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3154,16 +3114,16 @@
         <v>2.57</v>
       </c>
       <c r="F76" t="n">
-        <v>20000</v>
+        <v>973429</v>
       </c>
       <c r="G76" t="n">
-        <v>2.570000000000001</v>
+        <v>-7230269.003299227</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3190,10 +3150,10 @@
         <v>2.57</v>
       </c>
       <c r="F77" t="n">
-        <v>850.5211</v>
+        <v>331713</v>
       </c>
       <c r="G77" t="n">
-        <v>2.570000000000001</v>
+        <v>-7230269.003299227</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3226,10 +3186,10 @@
         <v>2.57</v>
       </c>
       <c r="F78" t="n">
-        <v>61014.4242</v>
+        <v>559469.3184</v>
       </c>
       <c r="G78" t="n">
-        <v>2.570000000000001</v>
+        <v>-7230269.003299227</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3250,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C79" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="D79" t="n">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="E79" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="F79" t="n">
-        <v>797184.3219</v>
+        <v>52136.1764</v>
       </c>
       <c r="G79" t="n">
-        <v>2.560000000000001</v>
+        <v>-7230269.003299227</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3286,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C80" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D80" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E80" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F80" t="n">
-        <v>57636.6673</v>
+        <v>3861.003861003861</v>
       </c>
       <c r="G80" t="n">
-        <v>2.560000000000001</v>
+        <v>-7226407.999438223</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3334,10 +3294,10 @@
         <v>2.57</v>
       </c>
       <c r="F81" t="n">
-        <v>888.452</v>
+        <v>1100</v>
       </c>
       <c r="G81" t="n">
-        <v>2.570000000000002</v>
+        <v>-7227507.999438223</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3358,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C82" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D82" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E82" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F82" t="n">
-        <v>20000</v>
+        <v>110318.7553</v>
       </c>
       <c r="G82" t="n">
-        <v>2.570000000000001</v>
+        <v>-7117189.244138223</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3394,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C83" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D83" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E83" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F83" t="n">
-        <v>18855.1664</v>
+        <v>20000</v>
       </c>
       <c r="G83" t="n">
-        <v>2.565000000000001</v>
+        <v>-7117189.244138223</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3430,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="C84" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="D84" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="E84" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F84" t="n">
-        <v>18855.166</v>
+        <v>30000</v>
       </c>
       <c r="G84" t="n">
-        <v>2.560000000000001</v>
+        <v>-7087189.244138223</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3466,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C85" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D85" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E85" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F85" t="n">
-        <v>73435.166</v>
+        <v>1510982.4813</v>
       </c>
       <c r="G85" t="n">
-        <v>2.565000000000001</v>
+        <v>-7087189.244138223</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3502,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C86" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D86" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E86" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="F86" t="n">
-        <v>11910</v>
+        <v>67494.2565</v>
       </c>
       <c r="G86" t="n">
-        <v>2.570000000000001</v>
+        <v>-7019694.987638223</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3538,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="C87" t="n">
         <v>2.58</v>
       </c>
       <c r="D87" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="E87" t="n">
         <v>2.58</v>
       </c>
       <c r="F87" t="n">
-        <v>217302.8473</v>
+        <v>105925.634</v>
       </c>
       <c r="G87" t="n">
-        <v>2.575000000000001</v>
+        <v>-7125620.621638223</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3586,16 +3546,16 @@
         <v>2.58</v>
       </c>
       <c r="F88" t="n">
-        <v>77357.8824</v>
+        <v>19048.0823</v>
       </c>
       <c r="G88" t="n">
-        <v>2.580000000000001</v>
+        <v>-7125620.621638223</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3610,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="C89" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="D89" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="E89" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="F89" t="n">
-        <v>77358.2709</v>
+        <v>43050.1581</v>
       </c>
       <c r="G89" t="n">
-        <v>2.580000000000001</v>
+        <v>-7082570.463538223</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3646,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C90" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D90" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E90" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="F90" t="n">
-        <v>99412</v>
+        <v>19623.0283</v>
       </c>
       <c r="G90" t="n">
-        <v>2.575000000000001</v>
+        <v>-7082570.463538223</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3682,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="C91" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="D91" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="E91" t="n">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="F91" t="n">
-        <v>96511.62790000001</v>
+        <v>88666.8135</v>
       </c>
       <c r="G91" t="n">
-        <v>2.575000000000001</v>
+        <v>-7082570.463538223</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3718,28 +3678,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C92" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D92" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E92" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F92" t="n">
-        <v>49878.4317</v>
+        <v>255714.0733</v>
       </c>
       <c r="G92" t="n">
-        <v>2.575000000000001</v>
+        <v>-7338284.536838223</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3754,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C93" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D93" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E93" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F93" t="n">
-        <v>211698.8829</v>
+        <v>195</v>
       </c>
       <c r="G93" t="n">
-        <v>2.565000000000001</v>
+        <v>-7338284.536838223</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3790,28 +3750,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C94" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D94" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E94" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F94" t="n">
-        <v>20000</v>
+        <v>19323.3954</v>
       </c>
       <c r="G94" t="n">
-        <v>2.565000000000001</v>
+        <v>-7338284.536838223</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3838,16 +3798,16 @@
         <v>2.58</v>
       </c>
       <c r="F95" t="n">
-        <v>1353.875968992248</v>
+        <v>15314.829</v>
       </c>
       <c r="G95" t="n">
-        <v>2.575000000000001</v>
+        <v>-7338284.536838223</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3862,28 +3822,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C96" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D96" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E96" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F96" t="n">
-        <v>27597.3449</v>
+        <v>19130.3954</v>
       </c>
       <c r="G96" t="n">
-        <v>2.580000000000001</v>
+        <v>-7357414.932238223</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3898,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="C97" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="D97" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="E97" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="F97" t="n">
-        <v>141208.6091</v>
+        <v>195</v>
       </c>
       <c r="G97" t="n">
-        <v>2.575000000000001</v>
+        <v>-7357219.932238223</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3934,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C98" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D98" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E98" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F98" t="n">
-        <v>20128.7621</v>
+        <v>430</v>
       </c>
       <c r="G98" t="n">
-        <v>2.575000000000001</v>
+        <v>-7357649.932238223</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3970,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C99" t="n">
         <v>2.57</v>
       </c>
       <c r="D99" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E99" t="n">
         <v>2.57</v>
       </c>
       <c r="F99" t="n">
-        <v>22185</v>
+        <v>12630.6489</v>
       </c>
       <c r="G99" t="n">
-        <v>2.575000000000001</v>
+        <v>-7357649.932238223</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4006,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="C100" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D100" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E100" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="F100" t="n">
-        <v>571.3966</v>
+        <v>84687.5221</v>
       </c>
       <c r="G100" t="n">
-        <v>2.570000000000001</v>
+        <v>-7272962.410138223</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4042,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C101" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="D101" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E101" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="F101" t="n">
-        <v>77377.5227</v>
+        <v>14689.4779</v>
       </c>
       <c r="G101" t="n">
-        <v>2.570000000000001</v>
+        <v>-7272962.410138223</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4078,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="C102" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="D102" t="n">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="E102" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="F102" t="n">
-        <v>199.8714</v>
+        <v>59522.1151</v>
       </c>
       <c r="G102" t="n">
-        <v>2.570000000000001</v>
+        <v>-7332484.525238223</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4114,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="C103" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D103" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="E103" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F103" t="n">
-        <v>145.4326</v>
+        <v>236220</v>
       </c>
       <c r="G103" t="n">
-        <v>2.570000000000001</v>
+        <v>-7096264.525238223</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4162,16 +4122,16 @@
         <v>2.57</v>
       </c>
       <c r="F104" t="n">
-        <v>948.7</v>
+        <v>213.4197</v>
       </c>
       <c r="G104" t="n">
-        <v>2.570000000000001</v>
+        <v>-7096477.944938224</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4186,28 +4146,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C105" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D105" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E105" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F105" t="n">
-        <v>77533</v>
+        <v>20000</v>
       </c>
       <c r="G105" t="n">
-        <v>2.565000000000001</v>
+        <v>-7096477.944938224</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4234,16 +4194,16 @@
         <v>2.57</v>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>850.5211</v>
       </c>
       <c r="G106" t="n">
-        <v>2.565000000000001</v>
+        <v>-7096477.944938224</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4270,16 +4230,16 @@
         <v>2.57</v>
       </c>
       <c r="F107" t="n">
-        <v>47817.8024</v>
+        <v>61014.4242</v>
       </c>
       <c r="G107" t="n">
-        <v>2.570000000000001</v>
+        <v>-7096477.944938224</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4294,28 +4254,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C108" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="D108" t="n">
-        <v>2.57</v>
+        <v>2.61</v>
       </c>
       <c r="E108" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="F108" t="n">
-        <v>14219</v>
+        <v>797184.3219</v>
       </c>
       <c r="G108" t="n">
-        <v>2.570000000000001</v>
+        <v>-7893662.266838224</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4330,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C109" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D109" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E109" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F109" t="n">
-        <v>194</v>
+        <v>57636.6673</v>
       </c>
       <c r="G109" t="n">
-        <v>2.575000000000001</v>
+        <v>-7836025.599538224</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4378,16 +4338,16 @@
         <v>2.57</v>
       </c>
       <c r="F110" t="n">
-        <v>1030.5481</v>
+        <v>888.452</v>
       </c>
       <c r="G110" t="n">
-        <v>2.575000000000001</v>
+        <v>-7836025.599538224</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4402,28 +4362,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C111" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D111" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E111" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F111" t="n">
-        <v>345.304</v>
+        <v>20000</v>
       </c>
       <c r="G111" t="n">
-        <v>2.565000000000001</v>
+        <v>-7836025.599538224</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4438,28 +4398,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="C112" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D112" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="E112" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F112" t="n">
-        <v>527489.8861</v>
+        <v>18855.1664</v>
       </c>
       <c r="G112" t="n">
-        <v>2.565000000000001</v>
+        <v>-7854880.765938224</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4486,16 +4446,16 @@
         <v>2.56</v>
       </c>
       <c r="F113" t="n">
-        <v>326201.9998</v>
+        <v>18855.166</v>
       </c>
       <c r="G113" t="n">
-        <v>2.565000000000001</v>
+        <v>-7854880.765938224</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4510,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C114" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D114" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E114" t="n">
         <v>2.56</v>
       </c>
       <c r="F114" t="n">
-        <v>20833</v>
+        <v>73435.166</v>
       </c>
       <c r="G114" t="n">
-        <v>2.560000000000001</v>
+        <v>-7781445.599938224</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4546,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C115" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D115" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E115" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F115" t="n">
-        <v>21830</v>
+        <v>11910</v>
       </c>
       <c r="G115" t="n">
-        <v>2.560000000000001</v>
+        <v>-7781445.599938224</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4582,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C116" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D116" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E116" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F116" t="n">
-        <v>153337.2178</v>
+        <v>217302.8473</v>
       </c>
       <c r="G116" t="n">
-        <v>2.560000000000001</v>
+        <v>-7564142.752638225</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4618,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C117" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D117" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E117" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F117" t="n">
-        <v>74285.58500000001</v>
+        <v>77357.8824</v>
       </c>
       <c r="G117" t="n">
-        <v>2.560000000000001</v>
+        <v>-7564142.752638225</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4654,28 +4614,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C118" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D118" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E118" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F118" t="n">
-        <v>487613.3158</v>
+        <v>77358.2709</v>
       </c>
       <c r="G118" t="n">
-        <v>2.560000000000001</v>
+        <v>-7564142.752638225</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4690,28 +4650,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="C119" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="D119" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="E119" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="F119" t="n">
-        <v>74800.0001</v>
+        <v>99412</v>
       </c>
       <c r="G119" t="n">
-        <v>2.550000000000002</v>
+        <v>-7663554.752638225</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4726,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="C120" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="D120" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="E120" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="F120" t="n">
-        <v>75259.88989999999</v>
+        <v>96511.62790000001</v>
       </c>
       <c r="G120" t="n">
-        <v>2.550000000000002</v>
+        <v>-7567043.124738225</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4771,13 +4731,13 @@
         <v>2.57</v>
       </c>
       <c r="E121" t="n">
-        <v>2.53</v>
+        <v>2.57</v>
       </c>
       <c r="F121" t="n">
-        <v>108530</v>
+        <v>49878.4317</v>
       </c>
       <c r="G121" t="n">
-        <v>2.565000000000002</v>
+        <v>-7616921.556438224</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4801,25 +4761,25 @@
         <v>2.57</v>
       </c>
       <c r="C122" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="D122" t="n">
         <v>2.57</v>
       </c>
       <c r="E122" t="n">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="F122" t="n">
-        <v>13380</v>
+        <v>211698.8829</v>
       </c>
       <c r="G122" t="n">
-        <v>2.570000000000001</v>
+        <v>-7828620.439338224</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4834,28 +4794,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="C123" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="D123" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="E123" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="F123" t="n">
-        <v>2867.7001</v>
+        <v>20000</v>
       </c>
       <c r="G123" t="n">
-        <v>2.575000000000001</v>
+        <v>-7808620.439338224</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4870,28 +4830,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="C124" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="D124" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="E124" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="F124" t="n">
-        <v>164244.102</v>
+        <v>1353.875968992248</v>
       </c>
       <c r="G124" t="n">
-        <v>2.575000000000001</v>
+        <v>-7807266.563369231</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4906,28 +4866,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C125" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D125" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E125" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F125" t="n">
-        <v>33077</v>
+        <v>27597.3449</v>
       </c>
       <c r="G125" t="n">
-        <v>2.560000000000001</v>
+        <v>-7807266.563369231</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4942,28 +4902,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="C126" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="D126" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="E126" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="F126" t="n">
-        <v>24594</v>
+        <v>141208.6091</v>
       </c>
       <c r="G126" t="n">
-        <v>2.555000000000001</v>
+        <v>-7948475.172469231</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4978,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="C127" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="D127" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="E127" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="F127" t="n">
-        <v>46390</v>
+        <v>20128.7621</v>
       </c>
       <c r="G127" t="n">
-        <v>2.555000000000001</v>
+        <v>-7928346.410369231</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5014,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="C128" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="D128" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="E128" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="F128" t="n">
-        <v>76126.02280000001</v>
+        <v>22185</v>
       </c>
       <c r="G128" t="n">
-        <v>2.550000000000001</v>
+        <v>-7950531.410369231</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5050,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C129" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D129" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E129" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F129" t="n">
-        <v>20000</v>
+        <v>571.3966</v>
       </c>
       <c r="G129" t="n">
-        <v>2.570000000000001</v>
+        <v>-7950531.410369231</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5086,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C130" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D130" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E130" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F130" t="n">
-        <v>470357.3383</v>
+        <v>77377.5227</v>
       </c>
       <c r="G130" t="n">
-        <v>2.590000000000001</v>
+        <v>-7950531.410369231</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5122,28 +5082,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="C131" t="n">
         <v>2.57</v>
       </c>
       <c r="D131" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="E131" t="n">
         <v>2.57</v>
       </c>
       <c r="F131" t="n">
-        <v>92943.84645384616</v>
+        <v>199.8714</v>
       </c>
       <c r="G131" t="n">
-        <v>2.580000000000001</v>
+        <v>-7950531.410369231</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5170,16 +5130,16 @@
         <v>2.57</v>
       </c>
       <c r="F132" t="n">
-        <v>20620</v>
+        <v>145.4326</v>
       </c>
       <c r="G132" t="n">
-        <v>2.570000000000001</v>
+        <v>-7950531.410369231</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5194,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C133" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D133" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E133" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F133" t="n">
-        <v>821733.7579</v>
+        <v>948.7</v>
       </c>
       <c r="G133" t="n">
-        <v>2.580000000000001</v>
+        <v>-7950531.410369231</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5230,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="C134" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="D134" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="E134" t="n">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="F134" t="n">
-        <v>263636.7024</v>
+        <v>77533</v>
       </c>
       <c r="G134" t="n">
-        <v>2.590000000000001</v>
+        <v>-8028064.410369231</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5266,31 +5226,35 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C135" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D135" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E135" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F135" t="n">
-        <v>96406.249</v>
+        <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>2.590000000000001</v>
+        <v>-8027064.410369231</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.56</v>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
@@ -5302,36 +5266,1268 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C136" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="D136" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E136" t="n">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="F136" t="n">
+        <v>47817.8024</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-8027064.410369231</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14219</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-8027064.410369231</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F138" t="n">
+        <v>194</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-8026870.410369231</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1030.5481</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-8027900.958469232</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F140" t="n">
+        <v>345.304</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8028246.262469231</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F141" t="n">
+        <v>527489.8861</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-7500756.376369231</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F142" t="n">
+        <v>326201.9998</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20833</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21830</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F145" t="n">
+        <v>153337.2178</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F146" t="n">
+        <v>74285.58500000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F147" t="n">
+        <v>487613.3158</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F148" t="n">
+        <v>74800.0001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-7901758.376269232</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F149" t="n">
+        <v>75259.88989999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-7826498.486369232</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F150" t="n">
+        <v>108530</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-7717968.486369232</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F151" t="n">
+        <v>13380</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-7717968.486369232</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2867.7001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-7715100.786269232</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F153" t="n">
+        <v>164244.102</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-7879344.888269232</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F154" t="n">
+        <v>33077</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-7912421.888269232</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F155" t="n">
+        <v>24594</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-7887827.888269232</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F156" t="n">
+        <v>46390</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-7934217.888269232</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F157" t="n">
+        <v>76126.02280000001</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-7934217.888269232</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-7914217.888269232</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F159" t="n">
+        <v>470357.3383</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-7914217.888269232</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F160" t="n">
+        <v>92943.84645384616</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-8007161.734723078</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F161" t="n">
+        <v>20620</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-8007161.734723078</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F162" t="n">
+        <v>821733.7579</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-7185427.976823078</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F163" t="n">
+        <v>263636.7024</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-7185427.976823078</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F164" t="n">
+        <v>96406.249</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-7185427.976823078</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F165" t="n">
         <v>38276.3839</v>
       </c>
-      <c r="G136" t="n">
-        <v>2.590000000000001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="G165" t="n">
+        <v>-7185427.976823078</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-2342915.597499999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-5375634.2733</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-6026977.168</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,19 @@
         <v>-7230269.003299227</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.57</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3029,23 @@
         <v>-7226407.999438223</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3070,23 @@
         <v>-7227507.999438223</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3113,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3144,19 @@
         <v>-7117189.244138223</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.58</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3181,23 @@
         <v>-7087189.244138223</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3222,23 @@
         <v>-7087189.244138223</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3263,19 @@
         <v>-7019694.987638223</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.59</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3300,23 @@
         <v>-7125620.621638223</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3341,23 @@
         <v>-7125620.621638223</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3384,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3421,23 @@
         <v>-7082570.463538223</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3464,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3501,23 @@
         <v>-7338284.536838223</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3542,23 @@
         <v>-7338284.536838223</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3583,23 @@
         <v>-7338284.536838223</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3626,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3663,23 @@
         <v>-7357414.932238223</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3706,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3743,23 @@
         <v>-7357649.932238223</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>2.6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3784,23 @@
         <v>-7357649.932238223</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3825,23 @@
         <v>-7272962.410138223</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3866,23 @@
         <v>-7272962.410138223</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3907,23 @@
         <v>-7332484.525238223</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3948,23 @@
         <v>-7096264.525238223</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>2.54</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3989,23 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +4030,23 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +4071,23 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4112,23 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4153,23 @@
         <v>-7893662.266838224</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +4194,23 @@
         <v>-7836025.599538224</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4235,23 @@
         <v>-7836025.599538224</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4276,23 @@
         <v>-7836025.599538224</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4317,23 @@
         <v>-7854880.765938224</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4360,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4399,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4438,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4475,23 @@
         <v>-7564142.752638225</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4516,23 @@
         <v>-7564142.752638225</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4557,23 @@
         <v>-7564142.752638225</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4598,23 @@
         <v>-7663554.752638225</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4639,23 @@
         <v>-7567043.124738225</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4682,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4719,23 @@
         <v>-7828620.439338224</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4760,23 @@
         <v>-7808620.439338224</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>2.56</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4801,23 @@
         <v>-7807266.563369231</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,18 +4842,23 @@
         <v>-7807266.563369231</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4883,23 @@
         <v>-7948475.172469231</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4924,23 @@
         <v>-7928346.410369231</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,18 +4965,23 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5028,18 +5006,23 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +5047,23 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +5088,23 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +5129,23 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +5170,23 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +5211,23 @@
         <v>-8028064.410369231</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,22 +5252,23 @@
         <v>-8027064.410369231</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J135" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5284,24 +5293,23 @@
         <v>-8027064.410369231</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5328,22 +5336,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5370,16 +5375,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5404,18 +5412,23 @@
         <v>-8027900.958469232</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5440,18 +5453,23 @@
         <v>-8028246.262469231</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5476,22 +5494,23 @@
         <v>-7500756.376369231</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J141" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K141" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5516,26 +5535,23 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="J142" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5560,26 +5576,23 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5604,18 +5617,23 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>2.56</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5640,22 +5658,23 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5680,26 +5699,23 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5724,26 +5740,23 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5768,22 +5781,23 @@
         <v>-7901758.376269232</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J148" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K148" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5808,26 +5822,23 @@
         <v>-7826498.486369232</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="J149" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K149" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5852,26 +5863,23 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J150" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K150" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5896,26 +5904,23 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="J151" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K151" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5940,26 +5945,23 @@
         <v>-7715100.786269232</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="J152" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K152" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5984,26 +5986,23 @@
         <v>-7879344.888269232</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="J153" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6028,26 +6027,21 @@
         <v>-7912421.888269232</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K154" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6072,26 +6066,23 @@
         <v>-7887827.888269232</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="J155" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K155" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6116,26 +6107,23 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="J156" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K156" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6160,26 +6148,23 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="J157" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K157" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6204,26 +6189,23 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="J158" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K158" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6248,26 +6230,23 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="J159" t="n">
         <v>2.59</v>
       </c>
-      <c r="K159" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6292,26 +6271,21 @@
         <v>-8007161.734723078</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>2.59</v>
       </c>
-      <c r="K160" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6336,26 +6310,23 @@
         <v>-8007161.734723078</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="J161" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K161" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6380,26 +6351,21 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K162" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6424,26 +6390,23 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="J163" t="n">
         <v>2.59</v>
       </c>
-      <c r="K163" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6468,24 +6431,23 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6510,26 +6472,25 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-2335946.9234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2342915.597499999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5375634.2733</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5375634.2733</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5376018.888699999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5375818.888699999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5376534.888699999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5376534.888699999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6026977.168</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6027181.550899999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-6206585.391499999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6206252.391499999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6258052.593399999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-6238052.593399999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-6239052.593399999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6299631.224699998</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2992,14 +2992,10 @@
         <v>-7230269.003299227</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3029,19 +3025,11 @@
         <v>-7226407.999438223</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3070,19 +3058,11 @@
         <v>-7227507.999438223</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3144,14 +3124,10 @@
         <v>-7117189.244138223</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3181,19 +3157,11 @@
         <v>-7087189.244138223</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3222,19 +3190,11 @@
         <v>-7087189.244138223</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +3223,10 @@
         <v>-7019694.987638223</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3300,19 +3256,11 @@
         <v>-7125620.621638223</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3341,19 +3289,11 @@
         <v>-7125620.621638223</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3421,19 +3355,11 @@
         <v>-7082570.463538223</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3465,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3501,19 +3421,11 @@
         <v>-7338284.536838223</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3542,19 +3454,11 @@
         <v>-7338284.536838223</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3583,19 +3487,11 @@
         <v>-7338284.536838223</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3627,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3663,19 +3553,11 @@
         <v>-7357414.932238223</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3707,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3743,19 +3619,11 @@
         <v>-7357649.932238223</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3784,19 +3652,11 @@
         <v>-7357649.932238223</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3825,19 +3685,11 @@
         <v>-7272962.410138223</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3866,19 +3718,11 @@
         <v>-7272962.410138223</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3907,19 +3751,11 @@
         <v>-7332484.525238223</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3948,19 +3784,11 @@
         <v>-7096264.525238223</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3989,19 +3817,11 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4030,19 +3850,11 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4071,19 +3883,11 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4112,19 +3916,11 @@
         <v>-7096477.944938224</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4153,19 +3949,11 @@
         <v>-7893662.266838224</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4194,19 +3982,11 @@
         <v>-7836025.599538224</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4235,19 +4015,11 @@
         <v>-7836025.599538224</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4276,19 +4048,11 @@
         <v>-7836025.599538224</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4317,19 +4081,11 @@
         <v>-7854880.765938224</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J112" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4361,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4397,15 +4147,15 @@
         <v>-7781445.599938224</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2.59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4439,9 +4189,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4475,14 +4223,10 @@
         <v>-7564142.752638225</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J116" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4516,14 +4260,10 @@
         <v>-7564142.752638225</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,14 +4297,10 @@
         <v>-7564142.752638225</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J118" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,14 +4334,10 @@
         <v>-7663554.752638225</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J119" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4639,14 +4371,10 @@
         <v>-7567043.124738225</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J120" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,9 +4411,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,14 +4445,10 @@
         <v>-7828620.439338224</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4760,14 +4482,10 @@
         <v>-7808620.439338224</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,14 +4519,12 @@
         <v>-7807266.563369231</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>2.57</v>
       </c>
-      <c r="J124" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,14 +4558,10 @@
         <v>-7807266.563369231</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,14 +4595,10 @@
         <v>-7948475.172469231</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J126" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4924,14 +4632,10 @@
         <v>-7928346.410369231</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4965,14 +4669,12 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>2.58</v>
       </c>
-      <c r="J128" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,14 +4708,12 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>2.57</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5047,14 +4747,12 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>2.57</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,14 +4786,12 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>2.57</v>
       </c>
-      <c r="J131" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,14 +4825,12 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>2.57</v>
       </c>
-      <c r="J132" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,14 +4864,10 @@
         <v>-7950531.410369231</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,14 +4901,10 @@
         <v>-8028064.410369231</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,14 +4938,10 @@
         <v>-8027064.410369231</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5293,14 +4975,12 @@
         <v>-8027064.410369231</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>2.57</v>
       </c>
-      <c r="J136" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,12 +5014,12 @@
         <v>-8027064.410369231</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2.59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,12 +5053,12 @@
         <v>-8026870.410369231</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2.59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,14 +5092,12 @@
         <v>-8027900.958469232</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>2.58</v>
       </c>
-      <c r="J139" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,14 +5131,12 @@
         <v>-8028246.262469231</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>2.57</v>
       </c>
-      <c r="J140" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,14 +5170,12 @@
         <v>-7500756.376369231</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>2.56</v>
       </c>
-      <c r="J141" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,14 +5209,12 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>2.57</v>
       </c>
-      <c r="J142" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,14 +5248,12 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>2.56</v>
       </c>
-      <c r="J143" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,14 +5287,12 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>2.56</v>
       </c>
-      <c r="J144" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,14 +5326,12 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>2.56</v>
       </c>
-      <c r="J145" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5699,14 +5365,12 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>2.56</v>
       </c>
-      <c r="J146" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5740,14 +5404,12 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>2.56</v>
       </c>
-      <c r="J147" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5781,14 +5443,12 @@
         <v>-7901758.376269232</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>2.56</v>
       </c>
-      <c r="J148" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5822,14 +5482,12 @@
         <v>-7826498.486369232</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>2.54</v>
       </c>
-      <c r="J149" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,14 +5521,12 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>2.56</v>
       </c>
-      <c r="J150" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5904,14 +5560,12 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>2.57</v>
       </c>
-      <c r="J151" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5945,14 +5599,12 @@
         <v>-7715100.786269232</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>2.57</v>
       </c>
-      <c r="J152" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,14 +5638,12 @@
         <v>-7879344.888269232</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>2.58</v>
       </c>
-      <c r="J153" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6030,9 +5680,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,14 +5714,12 @@
         <v>-7887827.888269232</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>2.55</v>
       </c>
-      <c r="J155" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6107,14 +5753,12 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>2.56</v>
       </c>
-      <c r="J156" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,14 +5792,12 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>2.55</v>
       </c>
-      <c r="J157" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6189,14 +5831,12 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>2.55</v>
       </c>
-      <c r="J158" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,14 +5870,12 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>2.59</v>
       </c>
-      <c r="J159" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,12 +5909,12 @@
         <v>-8007161.734723078</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,14 +5948,12 @@
         <v>-8007161.734723078</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>2.57</v>
       </c>
-      <c r="J161" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6351,12 +5987,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2.59</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,14 +6026,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>2.59</v>
       </c>
-      <c r="J163" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6431,14 +6065,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>2.59</v>
       </c>
-      <c r="J164" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6472,14 +6104,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>2.59</v>
       </c>
-      <c r="J165" t="n">
-        <v>2.59</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6491,6 +6121,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2126823.3371</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2333786.5362</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2258883.027199999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2342915.597499999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2342915.597499999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-5120683.4564</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-5375634.2733</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5375634.2733</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5376018.888699999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5375818.888699999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5376534.888699999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-5376534.888699999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6026977.168</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6027181.550899999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-6206585.391499999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-6206252.391499999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-6258052.593399999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-6238052.593399999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-6239052.593399999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-6299631.224699998</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -4147,1391 +4147,1261 @@
         <v>-7781445.599938224</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11910</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-7781445.599938224</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F116" t="n">
+        <v>217302.8473</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-7564142.752638225</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F117" t="n">
+        <v>77357.8824</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-7564142.752638225</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F118" t="n">
+        <v>77358.2709</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-7564142.752638225</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F119" t="n">
+        <v>99412</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-7663554.752638225</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F120" t="n">
+        <v>96511.62790000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-7567043.124738225</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F121" t="n">
+        <v>49878.4317</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-7616921.556438224</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F122" t="n">
+        <v>211698.8829</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-7828620.439338224</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-7808620.439338224</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1353.875968992248</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-7807266.563369231</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F125" t="n">
+        <v>27597.3449</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-7807266.563369231</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F126" t="n">
+        <v>141208.6091</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-7948475.172469231</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F127" t="n">
+        <v>20128.7621</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-7928346.410369231</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22185</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-7950531.410369231</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F129" t="n">
+        <v>571.3966</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-7950531.410369231</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F130" t="n">
+        <v>77377.5227</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-7950531.410369231</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F131" t="n">
+        <v>199.8714</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-7950531.410369231</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F132" t="n">
+        <v>145.4326</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-7950531.410369231</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F133" t="n">
+        <v>948.7</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-7950531.410369231</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F134" t="n">
+        <v>77533</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-8028064.410369231</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-8027064.410369231</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F136" t="n">
+        <v>47817.8024</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-8027064.410369231</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14219</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-8027064.410369231</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F138" t="n">
+        <v>194</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-8026870.410369231</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1030.5481</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-8027900.958469232</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F140" t="n">
+        <v>345.304</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8028246.262469231</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F141" t="n">
+        <v>527489.8861</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-7500756.376369231</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F142" t="n">
+        <v>326201.9998</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20833</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21830</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F145" t="n">
+        <v>153337.2178</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F146" t="n">
+        <v>74285.58500000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F147" t="n">
+        <v>487613.3158</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F148" t="n">
+        <v>74800.0001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-7901758.376269232</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F149" t="n">
+        <v>75259.88989999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-7826498.486369232</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F150" t="n">
+        <v>108530</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-7717968.486369232</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C115" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F115" t="n">
-        <v>11910</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-7781445.599938224</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C116" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F116" t="n">
-        <v>217302.8473</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-7564142.752638225</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E117" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F117" t="n">
-        <v>77357.8824</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-7564142.752638225</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E118" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F118" t="n">
-        <v>77358.2709</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-7564142.752638225</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C119" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E119" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F119" t="n">
-        <v>99412</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-7663554.752638225</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C120" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E120" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F120" t="n">
-        <v>96511.62790000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-7567043.124738225</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C121" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D121" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F121" t="n">
-        <v>49878.4317</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-7616921.556438224</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C122" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F122" t="n">
-        <v>211698.8829</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-7828620.439338224</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C123" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E123" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F123" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-7808620.439338224</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C124" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E124" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1353.875968992248</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-7807266.563369231</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C125" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E125" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F125" t="n">
-        <v>27597.3449</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-7807266.563369231</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C126" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E126" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F126" t="n">
-        <v>141208.6091</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-7948475.172469231</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C127" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E127" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F127" t="n">
-        <v>20128.7621</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-7928346.410369231</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C128" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E128" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F128" t="n">
-        <v>22185</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C129" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D129" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E129" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F129" t="n">
-        <v>571.3966</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C130" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E130" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F130" t="n">
-        <v>77377.5227</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E131" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F131" t="n">
-        <v>199.8714</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C132" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E132" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F132" t="n">
-        <v>145.4326</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E133" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F133" t="n">
-        <v>948.7</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F134" t="n">
-        <v>77533</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-8028064.410369231</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C135" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E135" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-8027064.410369231</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C136" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D136" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E136" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F136" t="n">
-        <v>47817.8024</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-8027064.410369231</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C137" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E137" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F137" t="n">
-        <v>14219</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-8027064.410369231</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C138" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="E138" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F138" t="n">
-        <v>194</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-8026870.410369231</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C139" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E139" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1030.5481</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-8027900.958469232</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C140" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E140" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F140" t="n">
-        <v>345.304</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-8028246.262469231</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C141" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E141" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F141" t="n">
-        <v>527489.8861</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-7500756.376369231</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C142" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E142" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F142" t="n">
-        <v>326201.9998</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F143" t="n">
-        <v>20833</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C144" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E144" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F144" t="n">
-        <v>21830</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F145" t="n">
-        <v>153337.2178</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F146" t="n">
-        <v>74285.58500000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F147" t="n">
-        <v>487613.3158</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="C148" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="D148" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E148" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="F148" t="n">
-        <v>74800.0001</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-7901758.376269232</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E149" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F149" t="n">
-        <v>75259.88989999999</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-7826498.486369232</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="C150" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="E150" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F150" t="n">
-        <v>108530</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-7717968.486369232</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +5435,9 @@
       <c r="I151" t="n">
         <v>2.57</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,12 +5471,12 @@
         <v>-7715100.786269232</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,12 +5510,12 @@
         <v>-7879344.888269232</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5680,7 +5552,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5714,12 +5588,12 @@
         <v>-7887827.888269232</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5753,12 +5627,12 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,7 +5671,9 @@
       <c r="I157" t="n">
         <v>2.55</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,7 +5712,9 @@
       <c r="I158" t="n">
         <v>2.55</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5870,12 +5748,12 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5909,12 +5787,12 @@
         <v>-8007161.734723078</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5948,12 +5826,12 @@
         <v>-8007161.734723078</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,12 +5865,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,12 +5904,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,12 +5943,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6104,12 +5982,12 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.56</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6121,6 +5999,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -484,7 +484,7 @@
         <v>-2335946.9234</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-5118224.2733</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-5261741.2733</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -5075,9 +5075,11 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J142" t="n">
         <v>2.56</v>
       </c>
@@ -5153,14 +5155,10 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5190,95 +5188,89 @@
         <v>-7826958.376169232</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F146" t="n">
+        <v>74285.58500000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F147" t="n">
+        <v>487613.3158</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-7826958.376169232</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F146" t="n">
-        <v>74285.58500000001</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="C147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="E147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F147" t="n">
-        <v>487613.3158</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5354,13 +5346,9 @@
         <v>2.54</v>
       </c>
       <c r="J149" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2.54</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5395,7 +5383,7 @@
         <v>2.56</v>
       </c>
       <c r="J150" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5430,13 +5418,11 @@
         <v>-7717968.486369232</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5475,7 +5461,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5514,7 +5500,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5553,7 +5539,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5588,11 +5574,13 @@
         <v>-7887827.888269232</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2.55</v>
+      </c>
       <c r="J155" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5627,11 +5615,13 @@
         <v>-7934217.888269232</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2.56</v>
+      </c>
       <c r="J156" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5672,7 +5662,7 @@
         <v>2.55</v>
       </c>
       <c r="J157" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5713,7 +5703,7 @@
         <v>2.55</v>
       </c>
       <c r="J158" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5748,11 +5738,13 @@
         <v>-7914217.888269232</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.59</v>
+      </c>
       <c r="J159" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5791,7 +5783,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5830,7 +5822,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5865,11 +5857,13 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.57</v>
+      </c>
       <c r="J162" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5904,11 +5898,13 @@
         <v>-7185427.976823078</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.59</v>
+      </c>
       <c r="J163" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5947,7 +5943,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5986,7 +5982,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>

--- a/BackTest/2019-11-21 BackTest ANKR.xlsx
+++ b/BackTest/2019-11-21 BackTest ANKR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>19072.5758</v>
       </c>
       <c r="G2" t="n">
-        <v>-2126823.3371</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>209123.5863</v>
       </c>
       <c r="G3" t="n">
-        <v>-2335946.9234</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2160.3872</v>
       </c>
       <c r="G4" t="n">
-        <v>-2333786.5362</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>74903.50900000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-2258883.027199999</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>84032.57030000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-2342915.597499999</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10586.7021</v>
       </c>
       <c r="G7" t="n">
-        <v>-2342915.597499999</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2777767.8589</v>
       </c>
       <c r="G8" t="n">
-        <v>-5120683.4564</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2459.1831</v>
       </c>
       <c r="G9" t="n">
-        <v>-5118224.2733</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>143517</v>
       </c>
       <c r="G10" t="n">
-        <v>-5261741.2733</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>150000</v>
       </c>
       <c r="G11" t="n">
-        <v>-5261741.2733</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>126956.8917</v>
       </c>
       <c r="G12" t="n">
-        <v>-5261741.2733</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>113893</v>
       </c>
       <c r="G13" t="n">
-        <v>-5375634.2733</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>587032.153</v>
       </c>
       <c r="G14" t="n">
-        <v>-5375634.2733</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>384.6154</v>
       </c>
       <c r="G15" t="n">
-        <v>-5376018.888699999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>200</v>
       </c>
       <c r="G16" t="n">
-        <v>-5375818.888699999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>716</v>
       </c>
       <c r="G17" t="n">
-        <v>-5376534.888699999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>5169.7676</v>
       </c>
       <c r="G18" t="n">
-        <v>-5376534.888699999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>650442.2793000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-6026977.168</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>204.3829</v>
       </c>
       <c r="G20" t="n">
-        <v>-6027181.550899999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>179403.8406</v>
       </c>
       <c r="G21" t="n">
-        <v>-6206585.391499999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>333</v>
       </c>
       <c r="G22" t="n">
-        <v>-6206252.391499999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>51800.2019</v>
       </c>
       <c r="G23" t="n">
-        <v>-6258052.593399999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>20000</v>
       </c>
       <c r="G24" t="n">
-        <v>-6238052.593399999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-6239052.593399999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>79338.3214</v>
       </c>
       <c r="G26" t="n">
-        <v>-6318390.914799999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>13370</v>
       </c>
       <c r="G27" t="n">
-        <v>-6318390.914799999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>18759.6901</v>
       </c>
       <c r="G28" t="n">
-        <v>-6299631.224699998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,19 @@
         <v>20000</v>
       </c>
       <c r="G29" t="n">
-        <v>-6299631.224699998</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.58</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1287,21 @@
         <v>562279.7679</v>
       </c>
       <c r="G30" t="n">
-        <v>-6861910.992599999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1323,23 @@
         <v>18156.0528</v>
       </c>
       <c r="G31" t="n">
-        <v>-6843754.939799999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>2.53</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1361,21 @@
         <v>12297.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>-6856052.939699999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1397,21 @@
         <v>69152.83590000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-6856052.939699999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1433,21 @@
         <v>20000</v>
       </c>
       <c r="G34" t="n">
-        <v>-6836052.939699999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1469,21 @@
         <v>291682.1787</v>
       </c>
       <c r="G35" t="n">
-        <v>-7127735.118399999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1505,21 @@
         <v>194</v>
       </c>
       <c r="G36" t="n">
-        <v>-7127541.118399999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1541,21 @@
         <v>36052.9982</v>
       </c>
       <c r="G37" t="n">
-        <v>-7163594.116599999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1577,23 @@
         <v>193</v>
       </c>
       <c r="G38" t="n">
-        <v>-7163401.116599999</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1615,21 @@
         <v>18646.3913</v>
       </c>
       <c r="G39" t="n">
-        <v>-7182047.5079</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1651,21 @@
         <v>18640</v>
       </c>
       <c r="G40" t="n">
-        <v>-7163407.5079</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1687,23 @@
         <v>36052.998</v>
       </c>
       <c r="G41" t="n">
-        <v>-7199460.505899999</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1725,21 @@
         <v>26875.1579</v>
       </c>
       <c r="G42" t="n">
-        <v>-7172585.347999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1761,23 @@
         <v>226367.269</v>
       </c>
       <c r="G43" t="n">
-        <v>-7398952.617</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1799,21 @@
         <v>46140</v>
       </c>
       <c r="G44" t="n">
-        <v>-7352812.617</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1835,21 @@
         <v>72269.7882</v>
       </c>
       <c r="G45" t="n">
-        <v>-7352812.617</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1871,21 @@
         <v>279823.9369</v>
       </c>
       <c r="G46" t="n">
-        <v>-7072988.6801</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1907,21 @@
         <v>191160.187</v>
       </c>
       <c r="G47" t="n">
-        <v>-7072988.6801</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1943,21 @@
         <v>167485.482</v>
       </c>
       <c r="G48" t="n">
-        <v>-7072988.6801</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1979,21 @@
         <v>53940.1763</v>
       </c>
       <c r="G49" t="n">
-        <v>-7072988.6801</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2015,21 @@
         <v>160348.5079</v>
       </c>
       <c r="G50" t="n">
-        <v>-7072988.6801</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2051,21 @@
         <v>38910.5058</v>
       </c>
       <c r="G51" t="n">
-        <v>-7072988.6801</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2087,21 @@
         <v>246.7165</v>
       </c>
       <c r="G52" t="n">
-        <v>-7072741.963599999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2123,21 @@
         <v>77380.7722007722</v>
       </c>
       <c r="G53" t="n">
-        <v>-6995361.191399227</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2159,21 @@
         <v>38810</v>
       </c>
       <c r="G54" t="n">
-        <v>-7034171.191399227</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2195,21 @@
         <v>19400</v>
       </c>
       <c r="G55" t="n">
-        <v>-7014771.191399227</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2231,21 @@
         <v>94624.0742</v>
       </c>
       <c r="G56" t="n">
-        <v>-7109395.265599227</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2267,21 @@
         <v>58863.302</v>
       </c>
       <c r="G57" t="n">
-        <v>-7168258.567599227</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2303,21 @@
         <v>396734.7194</v>
       </c>
       <c r="G58" t="n">
-        <v>-6771523.848199227</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2339,21 @@
         <v>77343.75</v>
       </c>
       <c r="G59" t="n">
-        <v>-6771523.848199227</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2375,21 @@
         <v>77343.75</v>
       </c>
       <c r="G60" t="n">
-        <v>-6848867.598199227</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2411,21 @@
         <v>96890.8465</v>
       </c>
       <c r="G61" t="n">
-        <v>-6751976.751699227</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2447,21 @@
         <v>61565.5155</v>
       </c>
       <c r="G62" t="n">
-        <v>-6813542.267199227</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2483,21 @@
         <v>50400</v>
       </c>
       <c r="G63" t="n">
-        <v>-6863942.267199227</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2519,21 @@
         <v>171223.923</v>
       </c>
       <c r="G64" t="n">
-        <v>-6692718.344199226</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2555,21 @@
         <v>71511.9855</v>
       </c>
       <c r="G65" t="n">
-        <v>-6692718.344199226</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2591,21 @@
         <v>76809.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>-6615908.344299226</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2627,21 @@
         <v>41712.0135</v>
       </c>
       <c r="G67" t="n">
-        <v>-6657620.357799226</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2663,21 @@
         <v>564504.7726</v>
       </c>
       <c r="G68" t="n">
-        <v>-6093115.585199227</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2699,21 @@
         <v>62412.5189</v>
       </c>
       <c r="G69" t="n">
-        <v>-6093115.585199227</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2735,21 @@
         <v>96890.8465</v>
       </c>
       <c r="G70" t="n">
-        <v>-6190006.431699227</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2771,21 @@
         <v>24310</v>
       </c>
       <c r="G71" t="n">
-        <v>-6165696.431699227</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2807,21 @@
         <v>117714.0082</v>
       </c>
       <c r="G72" t="n">
-        <v>-6283410.439899227</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2843,21 @@
         <v>793787.6779</v>
       </c>
       <c r="G73" t="n">
-        <v>-6283410.439899227</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2879,21 @@
         <v>550558</v>
       </c>
       <c r="G74" t="n">
-        <v>-6283410.439899227</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2915,21 @@
         <v>26570.4366</v>
       </c>
       <c r="G75" t="n">
-        <v>-6256840.003299227</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2951,21 @@
         <v>973429</v>
       </c>
       <c r="G76" t="n">
-        <v>-7230269.003299227</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2987,21 @@
         <v>331713</v>
       </c>
       <c r="G77" t="n">
-        <v>-7230269.003299227</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3023,21 @@
         <v>559469.3184</v>
       </c>
       <c r="G78" t="n">
-        <v>-7230269.003299227</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3059,21 @@
         <v>52136.1764</v>
       </c>
       <c r="G79" t="n">
-        <v>-7230269.003299227</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3095,21 @@
         <v>3861.003861003861</v>
       </c>
       <c r="G80" t="n">
-        <v>-7226407.999438223</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3131,21 @@
         <v>1100</v>
       </c>
       <c r="G81" t="n">
-        <v>-7227507.999438223</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3167,21 @@
         <v>110318.7553</v>
       </c>
       <c r="G82" t="n">
-        <v>-7117189.244138223</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3203,21 @@
         <v>20000</v>
       </c>
       <c r="G83" t="n">
-        <v>-7117189.244138223</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3239,21 @@
         <v>30000</v>
       </c>
       <c r="G84" t="n">
-        <v>-7087189.244138223</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3275,21 @@
         <v>1510982.4813</v>
       </c>
       <c r="G85" t="n">
-        <v>-7087189.244138223</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3311,21 @@
         <v>67494.2565</v>
       </c>
       <c r="G86" t="n">
-        <v>-7019694.987638223</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3347,21 @@
         <v>105925.634</v>
       </c>
       <c r="G87" t="n">
-        <v>-7125620.621638223</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3383,21 @@
         <v>19048.0823</v>
       </c>
       <c r="G88" t="n">
-        <v>-7125620.621638223</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3419,21 @@
         <v>43050.1581</v>
       </c>
       <c r="G89" t="n">
-        <v>-7082570.463538223</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3455,21 @@
         <v>19623.0283</v>
       </c>
       <c r="G90" t="n">
-        <v>-7082570.463538223</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3491,21 @@
         <v>88666.8135</v>
       </c>
       <c r="G91" t="n">
-        <v>-7082570.463538223</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3527,21 @@
         <v>255714.0733</v>
       </c>
       <c r="G92" t="n">
-        <v>-7338284.536838223</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3563,21 @@
         <v>195</v>
       </c>
       <c r="G93" t="n">
-        <v>-7338284.536838223</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3599,21 @@
         <v>19323.3954</v>
       </c>
       <c r="G94" t="n">
-        <v>-7338284.536838223</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3635,21 @@
         <v>15314.829</v>
       </c>
       <c r="G95" t="n">
-        <v>-7338284.536838223</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3671,21 @@
         <v>19130.3954</v>
       </c>
       <c r="G96" t="n">
-        <v>-7357414.932238223</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3707,21 @@
         <v>195</v>
       </c>
       <c r="G97" t="n">
-        <v>-7357219.932238223</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3743,21 @@
         <v>430</v>
       </c>
       <c r="G98" t="n">
-        <v>-7357649.932238223</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3779,21 @@
         <v>12630.6489</v>
       </c>
       <c r="G99" t="n">
-        <v>-7357649.932238223</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3815,21 @@
         <v>84687.5221</v>
       </c>
       <c r="G100" t="n">
-        <v>-7272962.410138223</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3851,21 @@
         <v>14689.4779</v>
       </c>
       <c r="G101" t="n">
-        <v>-7272962.410138223</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3887,21 @@
         <v>59522.1151</v>
       </c>
       <c r="G102" t="n">
-        <v>-7332484.525238223</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3923,21 @@
         <v>236220</v>
       </c>
       <c r="G103" t="n">
-        <v>-7096264.525238223</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3959,21 @@
         <v>213.4197</v>
       </c>
       <c r="G104" t="n">
-        <v>-7096477.944938224</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3995,21 @@
         <v>20000</v>
       </c>
       <c r="G105" t="n">
-        <v>-7096477.944938224</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4031,21 @@
         <v>850.5211</v>
       </c>
       <c r="G106" t="n">
-        <v>-7096477.944938224</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4067,21 @@
         <v>61014.4242</v>
       </c>
       <c r="G107" t="n">
-        <v>-7096477.944938224</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4103,21 @@
         <v>797184.3219</v>
       </c>
       <c r="G108" t="n">
-        <v>-7893662.266838224</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4139,21 @@
         <v>57636.6673</v>
       </c>
       <c r="G109" t="n">
-        <v>-7836025.599538224</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4175,21 @@
         <v>888.452</v>
       </c>
       <c r="G110" t="n">
-        <v>-7836025.599538224</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4211,21 @@
         <v>20000</v>
       </c>
       <c r="G111" t="n">
-        <v>-7836025.599538224</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4247,21 @@
         <v>18855.1664</v>
       </c>
       <c r="G112" t="n">
-        <v>-7854880.765938224</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4283,21 @@
         <v>18855.166</v>
       </c>
       <c r="G113" t="n">
-        <v>-7854880.765938224</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4319,21 @@
         <v>73435.166</v>
       </c>
       <c r="G114" t="n">
-        <v>-7781445.599938224</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4355,21 @@
         <v>11910</v>
       </c>
       <c r="G115" t="n">
-        <v>-7781445.599938224</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4391,21 @@
         <v>217302.8473</v>
       </c>
       <c r="G116" t="n">
-        <v>-7564142.752638225</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4427,21 @@
         <v>77357.8824</v>
       </c>
       <c r="G117" t="n">
-        <v>-7564142.752638225</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4463,21 @@
         <v>77358.2709</v>
       </c>
       <c r="G118" t="n">
-        <v>-7564142.752638225</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4499,21 @@
         <v>99412</v>
       </c>
       <c r="G119" t="n">
-        <v>-7663554.752638225</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4535,21 @@
         <v>96511.62790000001</v>
       </c>
       <c r="G120" t="n">
-        <v>-7567043.124738225</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4571,21 @@
         <v>49878.4317</v>
       </c>
       <c r="G121" t="n">
-        <v>-7616921.556438224</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4607,21 @@
         <v>211698.8829</v>
       </c>
       <c r="G122" t="n">
-        <v>-7828620.439338224</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4643,21 @@
         <v>20000</v>
       </c>
       <c r="G123" t="n">
-        <v>-7808620.439338224</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4679,21 @@
         <v>1353.875968992248</v>
       </c>
       <c r="G124" t="n">
-        <v>-7807266.563369231</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4715,21 @@
         <v>27597.3449</v>
       </c>
       <c r="G125" t="n">
-        <v>-7807266.563369231</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4751,21 @@
         <v>141208.6091</v>
       </c>
       <c r="G126" t="n">
-        <v>-7948475.172469231</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4787,21 @@
         <v>20128.7621</v>
       </c>
       <c r="G127" t="n">
-        <v>-7928346.410369231</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4823,21 @@
         <v>22185</v>
       </c>
       <c r="G128" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4859,21 @@
         <v>571.3966</v>
       </c>
       <c r="G129" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4895,21 @@
         <v>77377.5227</v>
       </c>
       <c r="G130" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4931,21 @@
         <v>199.8714</v>
       </c>
       <c r="G131" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4967,21 @@
         <v>145.4326</v>
       </c>
       <c r="G132" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +5003,21 @@
         <v>948.7</v>
       </c>
       <c r="G133" t="n">
-        <v>-7950531.410369231</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5039,21 @@
         <v>77533</v>
       </c>
       <c r="G134" t="n">
-        <v>-8028064.410369231</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5075,21 @@
         <v>1000</v>
       </c>
       <c r="G135" t="n">
-        <v>-8027064.410369231</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5111,21 @@
         <v>47817.8024</v>
       </c>
       <c r="G136" t="n">
-        <v>-8027064.410369231</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5147,21 @@
         <v>14219</v>
       </c>
       <c r="G137" t="n">
-        <v>-8027064.410369231</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5183,21 @@
         <v>194</v>
       </c>
       <c r="G138" t="n">
-        <v>-8026870.410369231</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5219,21 @@
         <v>1030.5481</v>
       </c>
       <c r="G139" t="n">
-        <v>-8027900.958469232</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5255,21 @@
         <v>345.304</v>
       </c>
       <c r="G140" t="n">
-        <v>-8028246.262469231</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,22 +5291,21 @@
         <v>527489.8861</v>
       </c>
       <c r="G141" t="n">
-        <v>-7500756.376369231</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J141" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5072,26 +5327,21 @@
         <v>326201.9998</v>
       </c>
       <c r="G142" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J142" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5113,24 +5363,21 @@
         <v>20833</v>
       </c>
       <c r="G143" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5152,18 +5399,21 @@
         <v>21830</v>
       </c>
       <c r="G144" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5185,18 +5435,21 @@
         <v>153337.2178</v>
       </c>
       <c r="G145" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5218,22 +5471,21 @@
         <v>74285.58500000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J146" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5255,26 +5507,21 @@
         <v>487613.3158</v>
       </c>
       <c r="G147" t="n">
-        <v>-7826958.376169232</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5296,26 +5543,21 @@
         <v>74800.0001</v>
       </c>
       <c r="G148" t="n">
-        <v>-7901758.376269232</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J148" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5337,22 +5579,23 @@
         <v>75259.88989999999</v>
       </c>
       <c r="G149" t="n">
-        <v>-7826498.486369232</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2.54</v>
       </c>
       <c r="I149" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J149" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5374,26 +5617,23 @@
         <v>108530</v>
       </c>
       <c r="G150" t="n">
-        <v>-7717968.486369232</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="I150" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5415,24 +5655,23 @@
         <v>13380</v>
       </c>
       <c r="G151" t="n">
-        <v>-7717968.486369232</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5454,24 +5693,23 @@
         <v>2867.7001</v>
       </c>
       <c r="G152" t="n">
-        <v>-7715100.786269232</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>2.57</v>
+      </c>
+      <c r="I152" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5493,24 +5731,23 @@
         <v>164244.102</v>
       </c>
       <c r="G153" t="n">
-        <v>-7879344.888269232</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5532,24 +5769,21 @@
         <v>33077</v>
       </c>
       <c r="G154" t="n">
-        <v>-7912421.888269232</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5571,26 +5805,23 @@
         <v>24594</v>
       </c>
       <c r="G155" t="n">
-        <v>-7887827.888269232</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="I155" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5612,26 +5843,23 @@
         <v>46390</v>
       </c>
       <c r="G156" t="n">
-        <v>-7934217.888269232</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2.56</v>
       </c>
       <c r="I156" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J156" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5653,26 +5881,23 @@
         <v>76126.02280000001</v>
       </c>
       <c r="G157" t="n">
-        <v>-7934217.888269232</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="I157" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5694,26 +5919,23 @@
         <v>20000</v>
       </c>
       <c r="G158" t="n">
-        <v>-7914217.888269232</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2.55</v>
       </c>
       <c r="I158" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J158" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5735,26 +5957,23 @@
         <v>470357.3383</v>
       </c>
       <c r="G159" t="n">
-        <v>-7914217.888269232</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2.59</v>
       </c>
       <c r="I159" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J159" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5776,24 +5995,23 @@
         <v>92943.84645384616</v>
       </c>
       <c r="G160" t="n">
-        <v>-8007161.734723078</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5815,24 +6033,21 @@
         <v>20620</v>
       </c>
       <c r="G161" t="n">
-        <v>-8007161.734723078</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5854,26 +6069,23 @@
         <v>821733.7579</v>
       </c>
       <c r="G162" t="n">
-        <v>-7185427.976823078</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="I162" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5895,26 +6107,23 @@
         <v>263636.7024</v>
       </c>
       <c r="G163" t="n">
-        <v>-7185427.976823078</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2.59</v>
       </c>
       <c r="I163" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5936,24 +6145,23 @@
         <v>96406.249</v>
       </c>
       <c r="G164" t="n">
-        <v>-7185427.976823078</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5975,24 +6183,23 @@
         <v>38276.3839</v>
       </c>
       <c r="G165" t="n">
-        <v>-7185427.976823078</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>2.59</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
